--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1477.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1477.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.433532622221525</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2.237128798698541</v>
+        <v>3.074275970458984</v>
       </c>
       <c r="C1">
+        <v>2.846532106399536</v>
+      </c>
+      <c r="D1">
+        <v>3.183358907699585</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="D1">
-        <v>1.850399273447647</v>
-      </c>
-      <c r="E1">
-        <v>0.6374091526798827</v>
       </c>
     </row>
   </sheetData>
